--- a/Matthias/02-Patients3MBq/Klassifikation_ROIs/ROI_Klassifizierung.xlsx
+++ b/Matthias/02-Patients3MBq/Klassifikation_ROIs/ROI_Klassifizierung.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\GitHub\TAToolbox\Matthias\02-Patients3MBq\Klassifikation_ROIs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A2CE7B-1773-4503-BCC6-5BD7EBAF62E7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AB2A58-FCFF-4357-B5D0-53B9A946503F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14025" windowHeight="11130" xr2:uid="{FF858C92-66FE-40C6-8BE4-87C30FAAC932}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14028" windowHeight="11136" xr2:uid="{FF858C92-66FE-40C6-8BE4-87C30FAAC932}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Klassifikation" sheetId="1" r:id="rId1"/>
+    <sheet name="Benennung Facharzt" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle4[#All]</definedName>
@@ -28,14 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="182">
   <si>
     <t>Patient</t>
   </si>
   <si>
-    <t>1 Vergleichs - ROI</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -51,10 +49,6 @@
     <t>Kommentar</t>
   </si>
   <si>
-    <t>relevant große ROIs über 
-Voxelanzahl festlegen</t>
-  </si>
-  <si>
     <t>5 ( fokales Gewebe - nur ein kleiner Teil segmentiert ?)</t>
   </si>
   <si>
@@ -67,10 +61,524 @@
     <t>1 (biggestROI)</t>
   </si>
   <si>
-    <t>2 Vergleichs - ROI  (Bestätigung fehlt)</t>
-  </si>
-  <si>
-    <t>"</t>
+    <t>VOI value</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>basal</t>
+  </si>
+  <si>
+    <t>LWS</t>
+  </si>
+  <si>
+    <t>Os sacrum</t>
+  </si>
+  <si>
+    <t>Becken</t>
+  </si>
+  <si>
+    <t>LK axillär li</t>
+  </si>
+  <si>
+    <t>LK iliakal links</t>
+  </si>
+  <si>
+    <t>LK iliakal rechts</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Organ</t>
+  </si>
+  <si>
+    <t>Lymph nodes</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Lung</t>
+  </si>
+  <si>
+    <t>Adrenal gland</t>
+  </si>
+  <si>
+    <t>Mamma</t>
+  </si>
+  <si>
+    <t>Pleura</t>
+  </si>
+  <si>
+    <t>Thyroid gland</t>
+  </si>
+  <si>
+    <t>Average Likert Score</t>
+  </si>
+  <si>
+    <t>LesionNo</t>
+  </si>
+  <si>
+    <t>IMA</t>
+  </si>
+  <si>
+    <t>LK submand. links</t>
+  </si>
+  <si>
+    <t>Se3/103</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>LK cervikal links Lev. III</t>
+  </si>
+  <si>
+    <t>Se3/80</t>
+  </si>
+  <si>
+    <t>LK (sub)mand. Links DD ossär</t>
+  </si>
+  <si>
+    <t>Se3/83-89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LK cervikal </t>
+  </si>
+  <si>
+    <t>Se3/96</t>
+  </si>
+  <si>
+    <t>Se3/99</t>
+  </si>
+  <si>
+    <t>LK hochmediastinal</t>
+  </si>
+  <si>
+    <t>Se3/162</t>
+  </si>
+  <si>
+    <t>kleiner LK mediastinal li</t>
+  </si>
+  <si>
+    <t>Se3/187</t>
+  </si>
+  <si>
+    <t>kleiner LK mediastinal re</t>
+  </si>
+  <si>
+    <t>Se3/184</t>
+  </si>
+  <si>
+    <t>Se3/194</t>
+  </si>
+  <si>
+    <t>a.e. Axilla re</t>
+  </si>
+  <si>
+    <t>Se3/211</t>
+  </si>
+  <si>
+    <t>ossär Becken links</t>
+  </si>
+  <si>
+    <t>Se3/381</t>
+  </si>
+  <si>
+    <t>Se3/408</t>
+  </si>
+  <si>
+    <t>Mamma re</t>
+  </si>
+  <si>
+    <t>Se3/148-175</t>
+  </si>
+  <si>
+    <t>LK hochmediastinal li</t>
+  </si>
+  <si>
+    <t>Mamma li</t>
+  </si>
+  <si>
+    <t>Se3/154</t>
+  </si>
+  <si>
+    <t>Hals rechts DD re SD</t>
+  </si>
+  <si>
+    <t>Se3/49</t>
+  </si>
+  <si>
+    <t>pulmo re OL</t>
+  </si>
+  <si>
+    <t>Se3/77</t>
+  </si>
+  <si>
+    <t>pulmo li OL</t>
+  </si>
+  <si>
+    <t>Se3/83</t>
+  </si>
+  <si>
+    <t>Se3/91</t>
+  </si>
+  <si>
+    <t>pulmo ML DD pleural</t>
+  </si>
+  <si>
+    <t>Se3/127</t>
+  </si>
+  <si>
+    <t>Pleura li dorsal</t>
+  </si>
+  <si>
+    <t>Pleura li paramediastinal ventral</t>
+  </si>
+  <si>
+    <t>Se3/126</t>
+  </si>
+  <si>
+    <t>Pleura re ventrolateral längerstr.</t>
+  </si>
+  <si>
+    <t>Se3/128</t>
+  </si>
+  <si>
+    <t>Pleura re paravertebral</t>
+  </si>
+  <si>
+    <t>Pleura links, ventraler recessus</t>
+  </si>
+  <si>
+    <t>Se3/140</t>
+  </si>
+  <si>
+    <t>Se3/158</t>
+  </si>
+  <si>
+    <t>Pleura links dorsal, längerstr.</t>
+  </si>
+  <si>
+    <t>Se3/160</t>
+  </si>
+  <si>
+    <t>Pleura links ventral</t>
+  </si>
+  <si>
+    <t>Se3/166</t>
+  </si>
+  <si>
+    <t>links parakardial</t>
+  </si>
+  <si>
+    <t>Se3/118</t>
+  </si>
+  <si>
+    <t>2 LK mediastinal bds.</t>
+  </si>
+  <si>
+    <t>Se3/94</t>
+  </si>
+  <si>
+    <t>LK mediastinal</t>
+  </si>
+  <si>
+    <t>LK li hilär</t>
+  </si>
+  <si>
+    <t>Se3/104</t>
+  </si>
+  <si>
+    <t>LK re hilär</t>
+  </si>
+  <si>
+    <t>Se3/113</t>
+  </si>
+  <si>
+    <t>Se3/117</t>
+  </si>
+  <si>
+    <t>LK paraösophageal</t>
+  </si>
+  <si>
+    <t>Se3/142</t>
+  </si>
+  <si>
+    <t>Läsion/LK li paravertebral</t>
+  </si>
+  <si>
+    <t>Se3/179</t>
+  </si>
+  <si>
+    <t>LK abdominal höhe Tr. Coel.</t>
+  </si>
+  <si>
+    <t>Se3/178</t>
+  </si>
+  <si>
+    <t>Subkutis OB li</t>
+  </si>
+  <si>
+    <t>Subkutis UB li</t>
+  </si>
+  <si>
+    <t>Se3/214</t>
+  </si>
+  <si>
+    <t>ossär ca. LKW1</t>
+  </si>
+  <si>
+    <t>Se3/195</t>
+  </si>
+  <si>
+    <t>LK infraclavikular re</t>
+  </si>
+  <si>
+    <t>Se3/63</t>
+  </si>
+  <si>
+    <t>LK subpektoral re</t>
+  </si>
+  <si>
+    <t>Se3/70</t>
+  </si>
+  <si>
+    <t>LK Axilla re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 kleine LK Axilla re </t>
+  </si>
+  <si>
+    <t>Se3/88</t>
+  </si>
+  <si>
+    <t>a.e. Knorpel-Knochen-ÜG li</t>
+  </si>
+  <si>
+    <t>Lunge re OL</t>
+  </si>
+  <si>
+    <t>Se3/110</t>
+  </si>
+  <si>
+    <t>tiefcervikal li</t>
+  </si>
+  <si>
+    <t>Se3/137</t>
+  </si>
+  <si>
+    <t>LK Axilla li</t>
+  </si>
+  <si>
+    <t>Se3/172</t>
+  </si>
+  <si>
+    <t>Se3/180</t>
+  </si>
+  <si>
+    <t>Se3/196</t>
+  </si>
+  <si>
+    <t>Se3/202</t>
+  </si>
+  <si>
+    <t>Se3/208</t>
+  </si>
+  <si>
+    <t>Se3/212-220</t>
+  </si>
+  <si>
+    <t>ossär - Schädelbasis re</t>
+  </si>
+  <si>
+    <t>Se3/34</t>
+  </si>
+  <si>
+    <t>ossär - HWS</t>
+  </si>
+  <si>
+    <t>Se3/47</t>
+  </si>
+  <si>
+    <t>ossär - Scapula li</t>
+  </si>
+  <si>
+    <t>Se3/98</t>
+  </si>
+  <si>
+    <t>ossär - Scapula re</t>
+  </si>
+  <si>
+    <t>Se3/102</t>
+  </si>
+  <si>
+    <t>ossär - BWS</t>
+  </si>
+  <si>
+    <t>ossär - Rippe re dorsal</t>
+  </si>
+  <si>
+    <t>Se3/191</t>
+  </si>
+  <si>
+    <t>Se3/199</t>
+  </si>
+  <si>
+    <t>ossär - Becken re</t>
+  </si>
+  <si>
+    <t>Se3/270</t>
+  </si>
+  <si>
+    <t>Se3/276</t>
+  </si>
+  <si>
+    <t>ossär - Femur re</t>
+  </si>
+  <si>
+    <t>Se3/372</t>
+  </si>
+  <si>
+    <t>ossär - Femur li</t>
+  </si>
+  <si>
+    <t>Se3/376</t>
+  </si>
+  <si>
+    <t>a.e. LK supraclav. re</t>
+  </si>
+  <si>
+    <t>a.e. LK supraclav. li</t>
+  </si>
+  <si>
+    <t>Se3/97</t>
+  </si>
+  <si>
+    <t>LK mediastinal re</t>
+  </si>
+  <si>
+    <t>Se3/116</t>
+  </si>
+  <si>
+    <t>LKkonglomerat mediastinal re</t>
+  </si>
+  <si>
+    <t>Se3/130-144</t>
+  </si>
+  <si>
+    <t>a.e. LK parakardial re</t>
+  </si>
+  <si>
+    <t>Se3/133</t>
+  </si>
+  <si>
+    <t>a.e. LK parakardial li</t>
+  </si>
+  <si>
+    <t>Lunge re UL groß</t>
+  </si>
+  <si>
+    <t>Se3/145 f.</t>
+  </si>
+  <si>
+    <t>Nebenniere re</t>
+  </si>
+  <si>
+    <t>Nebenniere li</t>
+  </si>
+  <si>
+    <t>LK hochmediastinal links</t>
+  </si>
+  <si>
+    <t>Se3/100</t>
+  </si>
+  <si>
+    <t>Se3/164</t>
+  </si>
+  <si>
+    <t>rektal</t>
+  </si>
+  <si>
+    <t>Se3/367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LK supraclav. links </t>
+  </si>
+  <si>
+    <t>Se3/128 f.</t>
+  </si>
+  <si>
+    <t>Se3/149</t>
+  </si>
+  <si>
+    <t>LK hochmediastinal re</t>
+  </si>
+  <si>
+    <t>Se3/152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LK paravertebral re </t>
+  </si>
+  <si>
+    <t>Se3/201</t>
+  </si>
+  <si>
+    <t>mehrere LK paravertebral re DD pleural</t>
+  </si>
+  <si>
+    <t>Se3/227f.</t>
+  </si>
+  <si>
+    <t>LK epiphrenisch</t>
+  </si>
+  <si>
+    <t>Se3/235</t>
+  </si>
+  <si>
+    <t>mehrere LK retrocrural re</t>
+  </si>
+  <si>
+    <t>Se3/252</t>
+  </si>
+  <si>
+    <t>LK retroperitoneal li</t>
+  </si>
+  <si>
+    <t>Se3/285</t>
+  </si>
+  <si>
+    <t>LK- parailiakal re</t>
+  </si>
+  <si>
+    <t>Se3/365</t>
+  </si>
+  <si>
+    <t>LK- inguinal re</t>
+  </si>
+  <si>
+    <t>Se3/383</t>
+  </si>
+  <si>
+    <t>Patienten ID</t>
+  </si>
+  <si>
+    <t>1 Maske - VergleichsROI - 
+rechter Leberlappen</t>
+  </si>
+  <si>
+    <t>2 Maske - VergleichsROI - 
+linker Leberlappen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Maske -
+ rechter Vorhof </t>
+  </si>
+  <si>
+    <t>4 Maske - 
+großer Lendenmuskel</t>
   </si>
 </sst>
 </file>
@@ -80,7 +588,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +603,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,8 +648,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -130,12 +668,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -161,14 +891,253 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Eingabe" xfId="2" builtinId="20"/>
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -197,16 +1166,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{333C2B33-94D0-430A-BE0C-76EE1F248A72}" name="Tabelle4" displayName="Tabelle4" ref="A1:E20" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:E20" xr:uid="{C5164E20-8621-4050-8904-27D68B3F52CF}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{299D9912-B79E-41FE-90F2-262BC8BF548F}" name="Patient" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{855A0FFE-2886-4556-BAB3-04095BFEE5A8}" name="1 Vergleichs - ROI" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{D77EE7A4-E810-453A-AE50-E5AED4A1D6C5}" name="2 Vergleichs - ROI  (Bestätigung fehlt)" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{333C2B33-94D0-430A-BE0C-76EE1F248A72}" name="Tabelle4" displayName="Tabelle4" ref="A1:G20" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="A1:G20" xr:uid="{C5164E20-8621-4050-8904-27D68B3F52CF}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{299D9912-B79E-41FE-90F2-262BC8BF548F}" name="Patient" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{855A0FFE-2886-4556-BAB3-04095BFEE5A8}" name="1 Maske - VergleichsROI - _x000a_rechter Leberlappen" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{D77EE7A4-E810-453A-AE50-E5AED4A1D6C5}" name="2 Maske - VergleichsROI - _x000a_linker Leberlappen" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{15BDE945-E8AB-4ABC-94D8-50217915AAFC}" name="3 Maske -_x000a_ rechter Vorhof " dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{B6B010AA-0A9A-4B3C-AC5B-D204A42284D4}" name="4 Maske - _x000a_großer Lendenmuskel" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{3BA643B5-C322-4ECB-A709-FCBD669DE8FE}" name="krankhaftes Gewebe - ROIs"/>
-    <tableColumn id="5" xr3:uid="{5D778527-808E-4828-BC31-287F3AAFEB67}" name="Kommentar" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{5D778527-808E-4828-BC31-287F3AAFEB67}" name="Kommentar" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9E53AD7-6CCC-4C93-A529-D6B94BB564D5}" name="Tabelle1" displayName="Tabelle1" ref="A1:F113" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F113" xr:uid="{A81A317D-5858-4493-ABFF-DE67917C9C83}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{1D38B53E-38DF-485B-B291-3C33938C019B}" name="Patienten ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A150A28F-268D-4884-9F8E-670CEEF36FCC}" name="LesionNo" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{F9CE858A-8CDF-428A-8FF6-9F90022C434C}" name="Organ" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{65A57553-76FD-4211-BC4E-89C50D367835}" name="IMA" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{288FEE89-1076-4A0E-9D92-D347C39201FD}" name="VOI value" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{19B3D7A7-61F4-4885-B574-E0D9FA475DDE}" name="Score" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -510,226 +1496,278 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="60" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" customWidth="1"/>
+    <col min="6" max="6" width="60" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="4">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7">
         <v>5</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="4">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="7">
         <v>5</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7">
         <v>5</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="4">
         <v>2</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="4">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>21</v>
       </c>
@@ -739,131 +1777,163 @@
       <c r="C13" s="4">
         <v>2</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="4">
         <v>2</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="4">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>24</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="4">
         <v>2</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="7">
         <v>5.6</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="4">
         <v>2</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="4">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>26</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" s="4">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="4">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4</v>
+      </c>
+      <c r="F17" s="7">
         <v>5</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" s="4">
         <v>2</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="4">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" s="4">
         <v>2</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="4">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>29</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" s="4">
         <v>2</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="D20" s="4">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -872,4 +1942,2041 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A810DBC6-0602-4ED4-AAC1-174B4245EEC1}">
+  <dimension ref="A1:F133"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12" style="18" customWidth="1"/>
+    <col min="3" max="3" width="35.44140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="18"/>
+    <col min="5" max="5" width="15.5546875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="18"/>
+    <col min="7" max="16384" width="11.5546875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
+        <v>6</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
+      <c r="B5" s="14">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="28"/>
+      <c r="B6" s="14">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
+      <c r="B7" s="14">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25">
+        <v>4</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>9</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="14">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="F10" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+      <c r="B11" s="14">
+        <v>2</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="28"/>
+      <c r="B12" s="14">
+        <v>3</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
+      <c r="B13" s="14">
+        <v>4</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="28"/>
+      <c r="B14" s="14">
+        <v>5</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="28"/>
+      <c r="B15" s="14">
+        <v>6</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="16">
+        <v>2</v>
+      </c>
+      <c r="F15" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25">
+        <v>7</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="26">
+        <v>3</v>
+      </c>
+      <c r="F16" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="20">
+        <v>10</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
+      <c r="B18" s="14">
+        <v>1</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1</v>
+      </c>
+      <c r="F18" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25">
+        <v>2</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="20">
+        <v>13</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25">
+        <v>1</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="26">
+        <v>1</v>
+      </c>
+      <c r="F21" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="20">
+        <v>14</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
+      <c r="B23" s="14">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="16">
+        <v>1</v>
+      </c>
+      <c r="F23" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="28"/>
+      <c r="B24" s="14">
+        <v>2</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="28"/>
+      <c r="B25" s="14">
+        <v>3</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="16">
+        <v>10</v>
+      </c>
+      <c r="F25" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="28"/>
+      <c r="B26" s="14">
+        <v>4</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="28"/>
+      <c r="B27" s="14">
+        <v>5</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="28"/>
+      <c r="B28" s="14">
+        <v>6</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="16">
+        <v>9</v>
+      </c>
+      <c r="F28" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="28"/>
+      <c r="B29" s="14">
+        <v>7</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="28"/>
+      <c r="B30" s="14">
+        <v>8</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="28"/>
+      <c r="B31" s="14">
+        <v>9</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="28"/>
+      <c r="B32" s="14">
+        <v>10</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="28"/>
+      <c r="B33" s="14">
+        <v>11</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="28"/>
+      <c r="B34" s="14">
+        <v>12</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="28"/>
+      <c r="B35" s="14">
+        <v>13</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="28"/>
+      <c r="B36" s="14">
+        <v>14</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="28"/>
+      <c r="B37" s="14">
+        <v>15</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="28"/>
+      <c r="B38" s="14">
+        <v>16</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="28"/>
+      <c r="B39" s="14">
+        <v>17</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="16">
+        <v>3</v>
+      </c>
+      <c r="F39" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="28"/>
+      <c r="B40" s="14">
+        <v>18</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="16">
+        <v>2</v>
+      </c>
+      <c r="F40" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="28"/>
+      <c r="B41" s="14">
+        <v>19</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="28"/>
+      <c r="B42" s="14">
+        <v>20</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="16">
+        <v>4</v>
+      </c>
+      <c r="F42" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="28"/>
+      <c r="B43" s="14">
+        <v>21</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="16">
+        <v>5</v>
+      </c>
+      <c r="F43" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="28"/>
+      <c r="B44" s="14">
+        <v>22</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="16">
+        <v>8</v>
+      </c>
+      <c r="F44" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="28"/>
+      <c r="B45" s="14">
+        <v>23</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="16"/>
+      <c r="F45" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="28"/>
+      <c r="B46" s="14">
+        <v>24</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="16">
+        <v>6</v>
+      </c>
+      <c r="F46" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="28"/>
+      <c r="B47" s="14">
+        <v>25</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="24"/>
+      <c r="B48" s="25">
+        <v>26</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="26">
+        <v>7</v>
+      </c>
+      <c r="F48" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="20">
+        <v>18</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="22"/>
+      <c r="F49" s="23"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="28"/>
+      <c r="B50" s="14">
+        <v>1</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="28"/>
+      <c r="B51" s="14">
+        <v>2</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="16">
+        <v>2</v>
+      </c>
+      <c r="F51" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="28"/>
+      <c r="B52" s="14">
+        <v>3</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="16">
+        <v>1</v>
+      </c>
+      <c r="F52" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="28"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" s="16"/>
+      <c r="F53" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="24"/>
+      <c r="B54" s="25">
+        <v>5</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="26"/>
+      <c r="F54" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="20">
+        <v>19</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="22"/>
+      <c r="F55" s="23"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="24"/>
+      <c r="B56" s="25">
+        <v>1</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E56" s="26">
+        <v>1</v>
+      </c>
+      <c r="F56" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="20">
+        <v>20</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="22"/>
+      <c r="F57" s="23"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="28"/>
+      <c r="B58" s="14">
+        <v>1</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E58" s="16"/>
+      <c r="F58" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="28"/>
+      <c r="B59" s="14">
+        <v>2</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" s="16"/>
+      <c r="F59" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="28"/>
+      <c r="B60" s="14">
+        <v>3</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" s="16"/>
+      <c r="F60" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="28"/>
+      <c r="B61" s="14">
+        <v>4</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E61" s="16"/>
+      <c r="F61" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="28"/>
+      <c r="B62" s="14">
+        <v>5</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62" s="16"/>
+      <c r="F62" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="28"/>
+      <c r="B63" s="14">
+        <v>6</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" s="16">
+        <v>1</v>
+      </c>
+      <c r="F63" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="28"/>
+      <c r="B64" s="14">
+        <v>7</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" s="16"/>
+      <c r="F64" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="24"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="27"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="20">
+        <v>21</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="22"/>
+      <c r="F66" s="23"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="28"/>
+      <c r="B67" s="14">
+        <v>1</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E67" s="16">
+        <v>1</v>
+      </c>
+      <c r="F67" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="28"/>
+      <c r="B68" s="14">
+        <v>2</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E68" s="16">
+        <v>2</v>
+      </c>
+      <c r="F68" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="28"/>
+      <c r="B69" s="14">
+        <v>3</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69" s="16"/>
+      <c r="F69" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="28"/>
+      <c r="B70" s="14">
+        <v>4</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E70" s="16"/>
+      <c r="F70" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="28"/>
+      <c r="B71" s="14">
+        <v>5</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" s="16">
+        <v>5</v>
+      </c>
+      <c r="F71" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="28"/>
+      <c r="B72" s="14">
+        <v>6</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" s="16">
+        <v>6</v>
+      </c>
+      <c r="F72" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="28"/>
+      <c r="B73" s="14">
+        <v>7</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E73" s="16"/>
+      <c r="F73" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="28"/>
+      <c r="B74" s="14">
+        <v>8</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E74" s="16"/>
+      <c r="F74" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="28"/>
+      <c r="B75" s="14">
+        <v>9</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E75" s="16"/>
+      <c r="F75" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="28"/>
+      <c r="B76" s="14">
+        <v>10</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E76" s="16"/>
+      <c r="F76" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="28"/>
+      <c r="B77" s="14">
+        <v>11</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E77" s="16"/>
+      <c r="F77" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="28"/>
+      <c r="B78" s="14">
+        <v>12</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E78" s="16"/>
+      <c r="F78" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="28"/>
+      <c r="B79" s="14">
+        <v>13</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E79" s="16"/>
+      <c r="F79" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="28"/>
+      <c r="B80" s="14">
+        <v>14</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E80" s="16">
+        <v>4</v>
+      </c>
+      <c r="F80" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="28"/>
+      <c r="B81" s="14">
+        <v>15</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E81" s="16"/>
+      <c r="F81" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="28"/>
+      <c r="B82" s="14">
+        <v>16</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E82" s="16">
+        <v>3</v>
+      </c>
+      <c r="F82" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="28"/>
+      <c r="B83" s="14">
+        <v>17</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E83" s="16"/>
+      <c r="F83" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="28"/>
+      <c r="B84" s="14">
+        <v>18</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E84" s="16"/>
+      <c r="F84" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="28"/>
+      <c r="B85" s="14">
+        <v>19</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E85" s="16"/>
+      <c r="F85" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="28"/>
+      <c r="B86" s="14">
+        <v>20</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E86" s="16"/>
+      <c r="F86" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="28"/>
+      <c r="B87" s="14">
+        <v>21</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E87" s="16"/>
+      <c r="F87" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="28"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16">
+        <v>7</v>
+      </c>
+      <c r="F88" s="29"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="28"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16">
+        <v>8</v>
+      </c>
+      <c r="F89" s="29"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="28"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16">
+        <v>9</v>
+      </c>
+      <c r="F90" s="29"/>
+    </row>
+    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="24"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26">
+        <v>10</v>
+      </c>
+      <c r="F91" s="27"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="20">
+        <v>24</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E92" s="22"/>
+      <c r="F92" s="23"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="28"/>
+      <c r="B93" s="14">
+        <v>1</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E93" s="16"/>
+      <c r="F93" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="28"/>
+      <c r="B94" s="14">
+        <v>2</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E94" s="16">
+        <v>1</v>
+      </c>
+      <c r="F94" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="24"/>
+      <c r="B95" s="25">
+        <v>3</v>
+      </c>
+      <c r="C95" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E95" s="26"/>
+      <c r="F95" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="20">
+        <v>26</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96" s="22"/>
+      <c r="F96" s="23"/>
+    </row>
+    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="24"/>
+      <c r="B97" s="25">
+        <v>1</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D97" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E97" s="26"/>
+      <c r="F97" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="20">
+        <v>28</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E98" s="22"/>
+      <c r="F98" s="23"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="28"/>
+      <c r="B99" s="14">
+        <v>1</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E99" s="16">
+        <v>1</v>
+      </c>
+      <c r="F99" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="28"/>
+      <c r="B100" s="14">
+        <v>2</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E100" s="16">
+        <v>2</v>
+      </c>
+      <c r="F100" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="28"/>
+      <c r="B101" s="14">
+        <v>3</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E101" s="16">
+        <v>4</v>
+      </c>
+      <c r="F101" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="28"/>
+      <c r="B102" s="14">
+        <v>4</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" s="16"/>
+      <c r="F102" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="28"/>
+      <c r="B103" s="14">
+        <v>5</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E103" s="16"/>
+      <c r="F103" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="28"/>
+      <c r="B104" s="14">
+        <v>6</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E104" s="16"/>
+      <c r="F104" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="28"/>
+      <c r="B105" s="14">
+        <v>7</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D105" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E105" s="16">
+        <v>5</v>
+      </c>
+      <c r="F105" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="28"/>
+      <c r="B106" s="14">
+        <v>8</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D106" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E106" s="16"/>
+      <c r="F106" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="28"/>
+      <c r="B107" s="14">
+        <v>9</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D107" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E107" s="16"/>
+      <c r="F107" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="28"/>
+      <c r="B108" s="14">
+        <v>10</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E108" s="16"/>
+      <c r="F108" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="28"/>
+      <c r="B109" s="14">
+        <v>11</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E109" s="16">
+        <v>6</v>
+      </c>
+      <c r="F109" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="28"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16">
+        <v>3</v>
+      </c>
+      <c r="F110" s="29"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="28"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16">
+        <v>7</v>
+      </c>
+      <c r="F111" s="29"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="28"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16">
+        <v>8</v>
+      </c>
+      <c r="F112" s="29"/>
+    </row>
+    <row r="113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="24"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26">
+        <v>9</v>
+      </c>
+      <c r="F113" s="27"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="30">
+        <v>13</v>
+      </c>
+      <c r="B114" s="31">
+        <v>89</v>
+      </c>
+      <c r="C114" s="31"/>
+      <c r="D114" s="31"/>
+      <c r="E114" s="31"/>
+      <c r="F114" s="31"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="11"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="11"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="11"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="11"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="11"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="11"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="11"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="11"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="11"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="11"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="11"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="11"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="11"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E127" s="17"/>
+      <c r="F127" s="17"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="11"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E128" s="17"/>
+      <c r="F128" s="17"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="11"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E129" s="17"/>
+      <c r="F129" s="17"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="11"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" s="17"/>
+      <c r="F130" s="17"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="11"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E131" s="17"/>
+      <c r="F131" s="17"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="11"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E132" s="17"/>
+      <c r="F132" s="17"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="11"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="17"/>
+      <c r="F133" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Matthias/02-Patients3MBq/Klassifikation_ROIs/ROI_Klassifizierung.xlsx
+++ b/Matthias/02-Patients3MBq/Klassifikation_ROIs/ROI_Klassifizierung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\GitHub\TAToolbox\Matthias\02-Patients3MBq\Klassifikation_ROIs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AB2A58-FCFF-4357-B5D0-53B9A946503F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5451DBB-8A79-4F25-A9B4-288A9BC9FA2E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14028" windowHeight="11136" xr2:uid="{FF858C92-66FE-40C6-8BE4-87C30FAAC932}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14025" windowHeight="11130" activeTab="1" xr2:uid="{FF858C92-66FE-40C6-8BE4-87C30FAAC932}"/>
   </bookViews>
   <sheets>
     <sheet name="Klassifikation" sheetId="1" r:id="rId1"/>
@@ -1498,22 +1498,22 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
     <col min="6" max="6" width="60" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>6</v>
       </c>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>9</v>
       </c>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>10</v>
       </c>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>13</v>
       </c>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>14</v>
       </c>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>17</v>
       </c>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>18</v>
       </c>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>19</v>
       </c>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>20</v>
       </c>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>21</v>
       </c>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>22</v>
       </c>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>24</v>
       </c>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>25</v>
       </c>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>26</v>
       </c>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>27</v>
       </c>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>28</v>
       </c>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>29</v>
       </c>
@@ -1948,22 +1948,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A810DBC6-0602-4ED4-AAC1-174B4245EEC1}">
   <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="12" customWidth="1"/>
     <col min="2" max="2" width="12" style="18" customWidth="1"/>
-    <col min="3" max="3" width="35.44140625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="18"/>
-    <col min="5" max="5" width="15.5546875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="18"/>
-    <col min="7" max="16384" width="11.5546875" style="9"/>
+    <col min="3" max="3" width="35.42578125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="18"/>
+    <col min="5" max="5" width="15.5703125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="18"/>
+    <col min="7" max="16384" width="11.5703125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>177</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -1993,7 +1993,7 @@
       <c r="E2" s="22"/>
       <c r="F2" s="23"/>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
       <c r="B3" s="25">
         <v>1</v>
@@ -2009,7 +2009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>6</v>
       </c>
@@ -2025,7 +2025,7 @@
       <c r="E4" s="22"/>
       <c r="F4" s="23"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="14">
         <v>1</v>
@@ -2041,7 +2041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="14">
         <v>2</v>
@@ -2057,7 +2057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="14">
         <v>3</v>
@@ -2073,7 +2073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="25">
         <v>4</v>
@@ -2089,7 +2089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>9</v>
       </c>
@@ -2105,7 +2105,7 @@
       <c r="E9" s="22"/>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
       <c r="B10" s="14">
         <v>1</v>
@@ -2123,7 +2123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
       <c r="B11" s="14">
         <v>2</v>
@@ -2139,7 +2139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
       <c r="B12" s="14">
         <v>3</v>
@@ -2155,7 +2155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="14">
         <v>4</v>
@@ -2171,7 +2171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="B14" s="14">
         <v>5</v>
@@ -2187,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="28"/>
       <c r="B15" s="14">
         <v>6</v>
@@ -2205,7 +2205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="25">
         <v>7</v>
@@ -2223,7 +2223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>10</v>
       </c>
@@ -2239,7 +2239,7 @@
       <c r="E17" s="22"/>
       <c r="F17" s="23"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="14">
         <v>1</v>
@@ -2257,7 +2257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
       <c r="B19" s="25">
         <v>2</v>
@@ -2273,7 +2273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>13</v>
       </c>
@@ -2289,7 +2289,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="23"/>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24"/>
       <c r="B21" s="25">
         <v>1</v>
@@ -2307,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>14</v>
       </c>
@@ -2323,7 +2323,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="23"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="14">
         <v>1</v>
@@ -2341,7 +2341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="14">
         <v>2</v>
@@ -2357,7 +2357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="14">
         <v>3</v>
@@ -2375,7 +2375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="14">
         <v>4</v>
@@ -2391,7 +2391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="14">
         <v>5</v>
@@ -2407,7 +2407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
       <c r="B28" s="14">
         <v>6</v>
@@ -2425,7 +2425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
       <c r="B29" s="14">
         <v>7</v>
@@ -2441,7 +2441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
       <c r="B30" s="14">
         <v>8</v>
@@ -2457,7 +2457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
       <c r="B31" s="14">
         <v>9</v>
@@ -2473,7 +2473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
       <c r="B32" s="14">
         <v>10</v>
@@ -2489,7 +2489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
       <c r="B33" s="14">
         <v>11</v>
@@ -2505,7 +2505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
       <c r="B34" s="14">
         <v>12</v>
@@ -2521,7 +2521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
       <c r="B35" s="14">
         <v>13</v>
@@ -2537,7 +2537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
       <c r="B36" s="14">
         <v>14</v>
@@ -2553,7 +2553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
       <c r="B37" s="14">
         <v>15</v>
@@ -2569,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
       <c r="B38" s="14">
         <v>16</v>
@@ -2585,7 +2585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
       <c r="B39" s="14">
         <v>17</v>
@@ -2603,7 +2603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
       <c r="B40" s="14">
         <v>18</v>
@@ -2621,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
       <c r="B41" s="14">
         <v>19</v>
@@ -2637,7 +2637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
       <c r="B42" s="14">
         <v>20</v>
@@ -2655,7 +2655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="14">
         <v>21</v>
@@ -2673,7 +2673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="14">
         <v>22</v>
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="14">
         <v>23</v>
@@ -2707,7 +2707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="14">
         <v>24</v>
@@ -2725,7 +2725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="28"/>
       <c r="B47" s="14">
         <v>25</v>
@@ -2741,7 +2741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24"/>
       <c r="B48" s="25">
         <v>26</v>
@@ -2759,7 +2759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
         <v>18</v>
       </c>
@@ -2775,7 +2775,7 @@
       <c r="E49" s="22"/>
       <c r="F49" s="23"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="28"/>
       <c r="B50" s="14">
         <v>1</v>
@@ -2791,7 +2791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="28"/>
       <c r="B51" s="14">
         <v>2</v>
@@ -2809,7 +2809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="28"/>
       <c r="B52" s="14">
         <v>3</v>
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="28"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15" t="s">
@@ -2841,7 +2841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
       <c r="B54" s="25">
         <v>5</v>
@@ -2857,7 +2857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
         <v>19</v>
       </c>
@@ -2873,7 +2873,7 @@
       <c r="E55" s="22"/>
       <c r="F55" s="23"/>
     </row>
-    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="24"/>
       <c r="B56" s="25">
         <v>1</v>
@@ -2891,7 +2891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
         <v>20</v>
       </c>
@@ -2907,7 +2907,7 @@
       <c r="E57" s="22"/>
       <c r="F57" s="23"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="28"/>
       <c r="B58" s="14">
         <v>1</v>
@@ -2923,7 +2923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="28"/>
       <c r="B59" s="14">
         <v>2</v>
@@ -2939,7 +2939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="28"/>
       <c r="B60" s="14">
         <v>3</v>
@@ -2955,7 +2955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="28"/>
       <c r="B61" s="14">
         <v>4</v>
@@ -2971,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="28"/>
       <c r="B62" s="14">
         <v>5</v>
@@ -2987,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="28"/>
       <c r="B63" s="14">
         <v>6</v>
@@ -3005,7 +3005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="28"/>
       <c r="B64" s="14">
         <v>7</v>
@@ -3021,7 +3021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="24"/>
       <c r="B65" s="26"/>
       <c r="C65" s="26"/>
@@ -3029,7 +3029,7 @@
       <c r="E65" s="26"/>
       <c r="F65" s="27"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="20">
         <v>21</v>
       </c>
@@ -3045,7 +3045,7 @@
       <c r="E66" s="22"/>
       <c r="F66" s="23"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="28"/>
       <c r="B67" s="14">
         <v>1</v>
@@ -3063,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="28"/>
       <c r="B68" s="14">
         <v>2</v>
@@ -3081,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="28"/>
       <c r="B69" s="14">
         <v>3</v>
@@ -3097,7 +3097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="28"/>
       <c r="B70" s="14">
         <v>4</v>
@@ -3113,7 +3113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="28"/>
       <c r="B71" s="14">
         <v>5</v>
@@ -3131,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="28"/>
       <c r="B72" s="14">
         <v>6</v>
@@ -3149,7 +3149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="28"/>
       <c r="B73" s="14">
         <v>7</v>
@@ -3165,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="28"/>
       <c r="B74" s="14">
         <v>8</v>
@@ -3181,7 +3181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="28"/>
       <c r="B75" s="14">
         <v>9</v>
@@ -3197,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="28"/>
       <c r="B76" s="14">
         <v>10</v>
@@ -3213,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="28"/>
       <c r="B77" s="14">
         <v>11</v>
@@ -3229,7 +3229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="28"/>
       <c r="B78" s="14">
         <v>12</v>
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="28"/>
       <c r="B79" s="14">
         <v>13</v>
@@ -3261,7 +3261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="28"/>
       <c r="B80" s="14">
         <v>14</v>
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="28"/>
       <c r="B81" s="14">
         <v>15</v>
@@ -3295,7 +3295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="28"/>
       <c r="B82" s="14">
         <v>16</v>
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="28"/>
       <c r="B83" s="14">
         <v>17</v>
@@ -3329,7 +3329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="28"/>
       <c r="B84" s="14">
         <v>18</v>
@@ -3345,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="28"/>
       <c r="B85" s="14">
         <v>19</v>
@@ -3361,7 +3361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="28"/>
       <c r="B86" s="14">
         <v>20</v>
@@ -3377,7 +3377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="28"/>
       <c r="B87" s="14">
         <v>21</v>
@@ -3393,7 +3393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="28"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14" t="s">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="F88" s="29"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="28"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14" t="s">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="F89" s="29"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="28"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14" t="s">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="F90" s="29"/>
     </row>
-    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="24"/>
       <c r="B91" s="25"/>
       <c r="C91" s="25" t="s">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="F91" s="27"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="20">
         <v>24</v>
       </c>
@@ -3457,7 +3457,7 @@
       <c r="E92" s="22"/>
       <c r="F92" s="23"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="28"/>
       <c r="B93" s="14">
         <v>1</v>
@@ -3473,7 +3473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="28"/>
       <c r="B94" s="14">
         <v>2</v>
@@ -3491,7 +3491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="24"/>
       <c r="B95" s="25">
         <v>3</v>
@@ -3507,7 +3507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="20">
         <v>26</v>
       </c>
@@ -3523,7 +3523,7 @@
       <c r="E96" s="22"/>
       <c r="F96" s="23"/>
     </row>
-    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="24"/>
       <c r="B97" s="25">
         <v>1</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="20">
         <v>28</v>
       </c>
@@ -3555,7 +3555,7 @@
       <c r="E98" s="22"/>
       <c r="F98" s="23"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="28"/>
       <c r="B99" s="14">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="28"/>
       <c r="B100" s="14">
         <v>2</v>
@@ -3591,7 +3591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="28"/>
       <c r="B101" s="14">
         <v>3</v>
@@ -3609,7 +3609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="28"/>
       <c r="B102" s="14">
         <v>4</v>
@@ -3625,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="28"/>
       <c r="B103" s="14">
         <v>5</v>
@@ -3641,7 +3641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="28"/>
       <c r="B104" s="14">
         <v>6</v>
@@ -3657,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="28"/>
       <c r="B105" s="14">
         <v>7</v>
@@ -3675,7 +3675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="28"/>
       <c r="B106" s="14">
         <v>8</v>
@@ -3691,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="28"/>
       <c r="B107" s="14">
         <v>9</v>
@@ -3707,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="28"/>
       <c r="B108" s="14">
         <v>10</v>
@@ -3723,7 +3723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="28"/>
       <c r="B109" s="14">
         <v>11</v>
@@ -3741,7 +3741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="28"/>
       <c r="B110" s="16"/>
       <c r="C110" s="16" t="s">
@@ -3753,7 +3753,7 @@
       </c>
       <c r="F110" s="29"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="28"/>
       <c r="B111" s="16"/>
       <c r="C111" s="16" t="s">
@@ -3765,7 +3765,7 @@
       </c>
       <c r="F111" s="29"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="28"/>
       <c r="B112" s="16"/>
       <c r="C112" s="16" t="s">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="F112" s="29"/>
     </row>
-    <row r="113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="24"/>
       <c r="B113" s="26"/>
       <c r="C113" s="26" t="s">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="F113" s="27"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="30">
         <v>13</v>
       </c>
@@ -3801,7 +3801,7 @@
       <c r="E114" s="31"/>
       <c r="F114" s="31"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
@@ -3811,7 +3811,7 @@
       <c r="E115" s="17"/>
       <c r="F115" s="17"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
@@ -3819,7 +3819,7 @@
       <c r="E116" s="17"/>
       <c r="F116" s="17"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
@@ -3827,7 +3827,7 @@
       <c r="E117" s="17"/>
       <c r="F117" s="17"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
@@ -3835,7 +3835,7 @@
       <c r="E118" s="17"/>
       <c r="F118" s="17"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
@@ -3843,7 +3843,7 @@
       <c r="E119" s="17"/>
       <c r="F119" s="17"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
@@ -3851,7 +3851,7 @@
       <c r="E120" s="17"/>
       <c r="F120" s="17"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
@@ -3859,7 +3859,7 @@
       <c r="E121" s="17"/>
       <c r="F121" s="17"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="17"/>
       <c r="C122" s="17"/>
@@ -3867,7 +3867,7 @@
       <c r="E122" s="17"/>
       <c r="F122" s="17"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
@@ -3875,7 +3875,7 @@
       <c r="E123" s="17"/>
       <c r="F123" s="17"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="11"/>
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
@@ -3885,7 +3885,7 @@
       <c r="E124" s="17"/>
       <c r="F124" s="17"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="11"/>
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
@@ -3893,7 +3893,7 @@
       <c r="E125" s="17"/>
       <c r="F125" s="17"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="11"/>
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
@@ -3903,7 +3903,7 @@
       <c r="E126" s="17"/>
       <c r="F126" s="17"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="11"/>
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
@@ -3913,7 +3913,7 @@
       <c r="E127" s="17"/>
       <c r="F127" s="17"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="11"/>
       <c r="B128" s="17"/>
       <c r="C128" s="17"/>
@@ -3923,7 +3923,7 @@
       <c r="E128" s="17"/>
       <c r="F128" s="17"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="11"/>
       <c r="B129" s="17"/>
       <c r="C129" s="17"/>
@@ -3933,7 +3933,7 @@
       <c r="E129" s="17"/>
       <c r="F129" s="17"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="11"/>
       <c r="B130" s="17"/>
       <c r="C130" s="17"/>
@@ -3943,7 +3943,7 @@
       <c r="E130" s="17"/>
       <c r="F130" s="17"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="11"/>
       <c r="B131" s="17"/>
       <c r="C131" s="17"/>
@@ -3953,7 +3953,7 @@
       <c r="E131" s="17"/>
       <c r="F131" s="17"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="11"/>
       <c r="B132" s="17"/>
       <c r="C132" s="17"/>
@@ -3963,7 +3963,7 @@
       <c r="E132" s="17"/>
       <c r="F132" s="17"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="11"/>
       <c r="B133" s="17"/>
       <c r="C133" s="17"/>
